--- a/Spreadsheets/Cofactors/Isoprenoid_NonMevalonate_Branch.xlsx
+++ b/Spreadsheets/Cofactors/Isoprenoid_NonMevalonate_Branch.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/PlantSEED_Repo/Spreadsheets/Cofactors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Roles" localSheetId="0">Sheet1!$A$1:$M$14</definedName>
+    <definedName name="Roles" localSheetId="0">Sheet1!$D$1:$Q$14</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Roles.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Isoprenoid_biosynthesis_in_plants,_nonmevalonate_branch:Roles.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Isoprenoid_biosynthesis_in_plants,_nonmevalonate_branch:Roles.tsv">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>Role</t>
   </si>
@@ -177,16 +185,207 @@
   </si>
   <si>
     <t>c, d</t>
+  </si>
+  <si>
+    <t>Consensus location</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <t>Predicted, not experimentally confirmed; Family: O-fucosyltransferase-like proteins are GDP-fucose dependent enzymes with similarities to the family 1 glycosyltransferases (GT1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>c, d, x</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>PMID:22430844</t>
+  </si>
+  <si>
+    <t>Cell wall biosynthesis</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS plastid; PPDB: curated, in house experiments and targetP plastid; Predotar: plastid and elsewhere; WolfPsort: cyto: 7, chlo: 5, mito: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:12177470 </t>
+  </si>
+  <si>
+    <t>PPDB: targetP: plastid; Predotar: plastid and mito; WolfPsort:  chlo: 9, mito: 3.5, cyto_mito: 2.5. No signal peptide</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: cytosol; Predotar: elsewhere; WolfPsort: chlo: 5, cyto: 4, pero: 3, extr: 2. No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS golgi; PPDB: targetP: cytosol; Predotar: elsewhere; WolfPsort: plas: 10, chlo: 1, nucl: 1, vacu: 1; No signal peptide. Membrane protein</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS plastid; PPDB: curated, and targetP plastid; Predotar: plastid and elsewhere; WolfPsort: chlo: 12, nucl: 1; Has signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:24104567</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: plastid; Predotar: plastid and elsewhere; WolfPsort: chlo: 8, cyto: 5. No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, in house experiments and targetP plastid; Predotar: plastid and elsewhere; WolfPsort: chlo: 9, cyto: 3, mito: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, in house experiments and targetP plastid; Predotar and WolfPsort: plastid; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, in house experiments: plastid;  and targetP mito; Predotar: plastid and elsewhere;  WolfPsort: chlo: 13; Has signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:10841550</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, and targetP plastid;  Predotar and WolfPsort: plastid ; Has signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, and targetP plastid;  Predotar: plastid and elsewhere and WolfPsort: cyto: 11, plas: 2; Has signal peptide</t>
+  </si>
+  <si>
+    <t>c, d, m</t>
+  </si>
+  <si>
+    <t>PMID:18988695</t>
+  </si>
+  <si>
+    <t>IPI2</t>
+  </si>
+  <si>
+    <t>d, m, x</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS plastid and mito; PPDB: curated mito and cytosol and targetP plastid; Predotar: elsewhere and mito; WolfPsort: plastid; No signal peptide; GFP of short transcript s located to peroxisome, while long transcript is located  mainly in mito and some to plastid [PMID:18988695]</t>
+  </si>
+  <si>
+    <t>IPI1</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid; PPDB: curated, plastid and cytosol and targetP plastid;  Predotar and WolfPsort: plastid; Has signal peptide; Lit: GFP long transcript plastid mainly, some mito</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>Ferredoxin</t>
+  </si>
+  <si>
+    <t>CTP as substrate</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>NAD(P)H</t>
+  </si>
+  <si>
+    <t>Inside chloroplast there need to be:</t>
+  </si>
+  <si>
+    <t>Pyruvate, D-glyceraldehyde 3-phosphate</t>
+  </si>
+  <si>
+    <t>NADH, NADPH, reduced ferredoxin</t>
+  </si>
+  <si>
+    <t>ATP, CTP</t>
+  </si>
+  <si>
+    <t>Thiamine pyrophosphate</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Isopentenyl-diphosphate delta-isomerase can be double targeted to plastids and mitochondria, and if a short transcript is used, it can also be targeted to peroxisome</t>
+  </si>
+  <si>
+    <t>The complete pathway can occur inside plastid</t>
+  </si>
+  <si>
+    <t>2-C-methyl-D-erythritol 4-phosphate pathway</t>
+  </si>
+  <si>
+    <t>CONSIDERATIONS FOR TRANSPORTERS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -213,14 +412,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -550,318 +763,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="4" max="4" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="M13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
-        <v>21</v>
+      <c r="M14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="4:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>